--- a/file/input/Ready_Base_MEV_202306.xlsx
+++ b/file/input/Ready_Base_MEV_202306.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26626"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26731"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\dev\GitHub\python_scripts\file\test\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://seagroup-my.sharepoint.com/personal/laras_fitria_seabank_co_id/Documents/Documents/01. WORK/ERFAN/python/python_scripts/file/input/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{B71F8F47-907D-42B2-AB20-69D59957C1D2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="14_{87DF3CAC-CE8F-47AA-9983-950C9E97C2D4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" xr2:uid="{B11096AF-02DD-4D8C-A005-317680F38042}"/>
   </bookViews>
@@ -16,6 +16,7 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
+  <webPublishing allowPng="1" targetScreenSize="1024x768" codePage="65001"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -36,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="55">
   <si>
     <t>GDP %</t>
   </si>
@@ -198,6 +199,9 @@
   </si>
   <si>
     <t>D_USDIDRGROWTH_Lag4Q</t>
+  </si>
+  <si>
+    <t>date</t>
   </si>
 </sst>
 </file>
@@ -553,8 +557,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1A776D5B-E3B0-4366-BFE9-B0F63B0C3F09}">
   <dimension ref="A1:BC277"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I10" sqref="I10"/>
+    <sheetView tabSelected="1" topLeftCell="AS264" workbookViewId="0">
+      <selection activeCell="BB282" sqref="BB282"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -563,6 +567,9 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:55" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
+        <v>54</v>
+      </c>
       <c r="B1" t="s">
         <v>0</v>
       </c>

--- a/file/input/Ready_Base_MEV_202306.xlsx
+++ b/file/input/Ready_Base_MEV_202306.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\dev\GitHub\python_scripts\file\test\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\dev\GitHub\python_scripts\file\input\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{B71F8F47-907D-42B2-AB20-69D59957C1D2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{33F9534C-7AB8-4290-B7D7-BF761478BDB7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" xr2:uid="{B11096AF-02DD-4D8C-A005-317680F38042}"/>
   </bookViews>
@@ -553,9 +553,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1A776D5B-E3B0-4366-BFE9-B0F63B0C3F09}">
   <dimension ref="A1:BC277"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I10" sqref="I10"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>

--- a/file/input/Ready_Base_MEV_202306.xlsx
+++ b/file/input/Ready_Base_MEV_202306.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26626"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26731"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\dev\GitHub\python_scripts\file\input\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://seagroup-my.sharepoint.com/personal/laras_fitria_seabank_co_id/Documents/Documents/01. WORK/ERFAN/python/python_scripts/file/input/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{33F9534C-7AB8-4290-B7D7-BF761478BDB7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="2" documentId="13_ncr:1_{33F9534C-7AB8-4290-B7D7-BF761478BDB7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{4BD40E7C-A4F8-4300-9A9C-0E0A37EE0B64}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" xr2:uid="{B11096AF-02DD-4D8C-A005-317680F38042}"/>
   </bookViews>
@@ -553,7 +553,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1A776D5B-E3B0-4366-BFE9-B0F63B0C3F09}">
   <dimension ref="A1:BC277"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="L5" sqref="A5:XFD5"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
@@ -773,6 +775,10 @@
       <c r="D5">
         <v>8675</v>
       </c>
+      <c r="L5">
+        <f>C2</f>
+        <v>8.74</v>
+      </c>
     </row>
     <row r="6" spans="1:55" x14ac:dyDescent="0.3">
       <c r="A6" s="1">
@@ -786,6 +792,10 @@
       </c>
       <c r="D6">
         <v>8310</v>
+      </c>
+      <c r="L6">
+        <f>C3</f>
+        <v>7.34</v>
       </c>
     </row>
     <row r="7" spans="1:55" x14ac:dyDescent="0.3">
